--- a/Time-Card ТЕНШ.467883.001/МАТЕРИНСКАЯ ПЛАТА/ECAD/Latest/ECAD_ИТОГ/BOM/QANTUM_PROJECT.xlsx
+++ b/Time-Card ТЕНШ.467883.001/МАТЕРИНСКАЯ ПЛАТА/ECAD/Latest/ECAD_ИТОГ/BOM/QANTUM_PROJECT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\QUANTUM\QUANTUM\Qantum Time-Card\HW\ECAD\Latest\ECAD\Project Outputs for QANTUM_PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIWA\Documents\GitHub\QUANTUM\Time-Card ТЕНШ.467883.001\МАТЕРИНСКАЯ ПЛАТА\ECAD\Latest\ECAD_ИТОГ\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F113380B-8FA2-41B5-8909-BD7604DF886E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7014AC9F-2E99-4BF6-BD65-4F4F14074B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1704" yWindow="348" windowWidth="20328" windowHeight="10956" xr2:uid="{F7A0B96F-3A13-4813-9283-3EF455B175AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7A0B96F-3A13-4813-9283-3EF455B175AB}"/>
   </bookViews>
   <sheets>
     <sheet name="QANTUM_PROJECT" sheetId="1" r:id="rId1"/>
@@ -1307,7 +1307,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8508E5D8-7876-4552-9432-B2574640F4FF}">
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
